--- a/SubwayData/Excel/6호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/6호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3332B45D-1CAC-5647-B640-3B0E1A7832E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B19D749-47A9-4641-8E47-C20F1E33555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{30BA8085-F737-8B45-9E28-269154682681}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>신내</t>
   </si>
   <si>
-    <t>봉화산(서울의료원)</t>
-  </si>
-  <si>
-    <t>화랑대(서울여대입구)</t>
-  </si>
-  <si>
     <t>태릉입구</t>
   </si>
   <si>
@@ -75,18 +69,6 @@
     <t>돌곶이</t>
   </si>
   <si>
-    <t>상월곡(한국과학기술연구원)</t>
-  </si>
-  <si>
-    <t>월곡(동덕여대)</t>
-  </si>
-  <si>
-    <t>고려대(종암)</t>
-  </si>
-  <si>
-    <t>안암(고대병원앞)</t>
-  </si>
-  <si>
     <t>보문</t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t>이태원</t>
   </si>
   <si>
-    <t>녹사평(용산구청)</t>
-  </si>
-  <si>
     <t>삼각지</t>
   </si>
   <si>
@@ -126,12 +105,6 @@
     <t>공덕</t>
   </si>
   <si>
-    <t>대흥(서강대앞)</t>
-  </si>
-  <si>
-    <t>광흥창(서강)</t>
-  </si>
-  <si>
     <t>상수</t>
   </si>
   <si>
@@ -144,18 +117,9 @@
     <t>마포구청</t>
   </si>
   <si>
-    <t>월드컵경기장(성산)</t>
-  </si>
-  <si>
     <t>디지털미디어시티</t>
   </si>
   <si>
-    <t>증산(명지대앞)</t>
-  </si>
-  <si>
-    <t>새절(신사)</t>
-  </si>
-  <si>
     <t>응암</t>
   </si>
   <si>
@@ -172,6 +136,54 @@
   </si>
   <si>
     <t>역촌</t>
+  </si>
+  <si>
+    <t>봉화산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상월곡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월곡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안암</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹사평</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대흥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광흥창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드컵경기장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D480A29-2A50-4943-A966-BC2C86A1E372}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -625,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3">
         <v>1.3</v>
@@ -639,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3">
         <v>0.7</v>
@@ -653,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>0.9</v>
@@ -667,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <v>0.8</v>
@@ -681,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -695,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3">
         <v>0.8</v>
@@ -709,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3">
         <v>0.8</v>
@@ -723,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3">
         <v>1.4</v>
@@ -737,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3">
         <v>0.8</v>
@@ -751,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>0.9</v>
@@ -765,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>0.8</v>
@@ -779,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
         <v>0.9</v>
@@ -793,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <v>0.6</v>
@@ -807,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>0.7</v>
@@ -821,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>0.8</v>
@@ -835,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>0.7</v>
@@ -849,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -863,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -877,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3">
         <v>0.8</v>
@@ -891,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3">
         <v>1.1000000000000001</v>
@@ -905,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3">
         <v>1.2</v>
@@ -919,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
         <v>0.9</v>
@@ -933,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3">
         <v>0.9</v>
@@ -947,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -961,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3">
         <v>0.9</v>
@@ -975,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3">
         <v>0.8</v>
@@ -989,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3">
         <v>0.8</v>
@@ -1003,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1017,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D31" s="3">
         <v>0.8</v>
@@ -1032,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3">
         <v>0.8</v>
@@ -1046,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3">
         <v>1.1000000000000001</v>
@@ -1060,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3">
         <v>0.9</v>
@@ -1074,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3">
         <v>0.8</v>
@@ -1088,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1">
         <v>1.5</v>
@@ -1102,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3">
         <v>0.9</v>
@@ -1116,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3">
         <v>1.4</v>
@@ -1130,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3">
         <v>0.9</v>
@@ -1144,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D40" s="3">
         <v>0.8</v>
@@ -1158,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3">
         <v>1.1000000000000001</v>
